--- a/sofaplayer/Bundesliga/1. FC Köln_stats.xlsx
+++ b/sofaplayer/Bundesliga/1. FC Köln_stats.xlsx
@@ -4230,141 +4230,141 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ísak Bergmann Jóhannesson</t>
+          <t>Eric Martel</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1112327</v>
+        <v>988639</v>
       </c>
       <c r="E11" t="n">
-        <v>6.785</v>
+        <v>6.795</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>1186</v>
+        <v>1629</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6483</v>
+        <v>0.7557</v>
       </c>
       <c r="L11" t="n">
-        <v>1186</v>
+        <v>1629</v>
       </c>
       <c r="M11" t="n">
+        <v>9</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>11.111111111111</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.9062966</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1210</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>804</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>86.918918918919</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>925</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>514</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>92</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>63</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>95</v>
+      </c>
+      <c r="AU11" t="n">
         <v>5</v>
       </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2.59641267</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>722</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>473</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>84.014209591474</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>563</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>206</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>267</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>139</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>45.945945945946</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>43</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>1</v>
-      </c>
       <c r="AV11" t="n">
         <v>0</v>
       </c>
@@ -4375,44 +4375,44 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>75</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BA11" t="n">
+        <v>117</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>53.181818181818</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>48.571428571429</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>66</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>57.391304347826</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>146</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>27</v>
+      </c>
+      <c r="BI11" t="n">
         <v>31</v>
       </c>
-      <c r="BB11" t="n">
-        <v>43.055555555556</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>25</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>45.454545454545</v>
-      </c>
-      <c r="BE11" t="n">
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
         <v>6</v>
       </c>
-      <c r="BF11" t="n">
-        <v>35.294117647059</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>149</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>3</v>
-      </c>
       <c r="BL11" t="n">
         <v>0</v>
       </c>
@@ -4420,25 +4420,25 @@
         <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BO11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>135.7</v>
+        <v>135.9</v>
       </c>
       <c r="BR11" t="n">
         <v>20</v>
       </c>
       <c r="BS11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT11" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4453,41 +4453,41 @@
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CA11" t="n">
         <v>3</v>
       </c>
       <c r="CB11" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="CC11" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="CD11" t="n">
+        <v>13</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
         <v>26</v>
       </c>
-      <c r="CE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>20</v>
-      </c>
       <c r="CK11" t="n">
         <v>3</v>
       </c>
@@ -4510,19 +4510,19 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="CS11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CT11" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="CU11" t="n">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="CV11" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -4534,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="DA11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DB11" t="n">
-        <v>55.555555555556</v>
+        <v>54.545454545455</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4552,19 +4552,19 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>222</v>
+        <v>564</v>
       </c>
       <c r="DG11" t="n">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI11" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="DJ11" t="n">
-        <v>2168750</v>
+        <v>2168780</v>
       </c>
       <c r="DK11" t="inlineStr">
         <is>
@@ -4586,38 +4586,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Eric Martel</t>
+          <t>Ísak Bergmann Jóhannesson</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>988639</v>
+        <v>1112327</v>
       </c>
       <c r="E12" t="n">
-        <v>6.795</v>
+        <v>6.785</v>
       </c>
       <c r="F12" t="n">
         <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>1629</v>
+        <v>1186</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7557</v>
+        <v>0.6483</v>
       </c>
       <c r="L12" t="n">
-        <v>1629</v>
+        <v>1186</v>
       </c>
       <c r="M12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>11.111111111111</v>
+        <v>20</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -4644,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -4656,145 +4656,145 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9062966</v>
+        <v>2.59641267</v>
       </c>
       <c r="AB12" t="n">
-        <v>1210</v>
+        <v>722</v>
       </c>
       <c r="AC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>473</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>84.014209591474</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>563</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>206</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>267</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>139</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>45.945945945946</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>31</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>43.055555555556</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>45.454545454545</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>35.294117647059</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>149</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI12" t="n">
         <v>4</v>
       </c>
-      <c r="AD12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>804</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>86.918918918919</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>925</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>514</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>92</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="BJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
         <v>23</v>
       </c>
-      <c r="AP12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>63</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>117</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>53.181818181818</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>48.571428571429</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>66</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>57.391304347826</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>146</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>27</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>31</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>6</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>29</v>
-      </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>135.9</v>
+        <v>135.7</v>
       </c>
       <c r="BR12" t="n">
         <v>20</v>
       </c>
       <c r="BS12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BT12" t="n">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4809,28 +4809,28 @@
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CA12" t="n">
         <v>3</v>
       </c>
       <c r="CB12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="CC12" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="CD12" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG12" t="n">
         <v>0</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="CK12" t="n">
         <v>3</v>
@@ -4866,61 +4866,61 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>51</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>41</v>
+      </c>
+      <c r="CV12" t="n">
         <v>11</v>
       </c>
-      <c r="CS12" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT12" t="n">
+      <c r="CW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>74</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>55.555555555556</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>222</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>341</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI12" t="n">
         <v>5</v>
       </c>
-      <c r="CU12" t="n">
-        <v>103</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>49</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ12" t="n">
-        <v>54</v>
-      </c>
-      <c r="DA12" t="n">
-        <v>12</v>
-      </c>
-      <c r="DB12" t="n">
-        <v>54.545454545455</v>
-      </c>
-      <c r="DC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF12" t="n">
-        <v>564</v>
-      </c>
-      <c r="DG12" t="n">
-        <v>361</v>
-      </c>
-      <c r="DH12" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI12" t="n">
-        <v>15</v>
-      </c>
       <c r="DJ12" t="n">
-        <v>2168780</v>
+        <v>2168750</v>
       </c>
       <c r="DK12" t="inlineStr">
         <is>
